--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E08CD6-3A58-4EC0-B160-1673A238E2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332929E-0DD8-4492-9613-E997F109CA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6276E-D58A-4059-B15B-6BA37AB93EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ds_browser</t>
     <phoneticPr fontId="8"/>
@@ -71,6 +71,44 @@
   <si>
     <t>https://cw623.intr.toray.co.jp/b82stg/loginForm</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_system_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_old</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>https://cw623.intr.toray.co.jp/b82/loginForm</t>
   </si>
 </sst>
 </file>
@@ -541,46 +579,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5609559-755E-40FC-BE6D-FDD05E95B777}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{367F2723-81FA-401D-BCF0-50F09151C362}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{367F2723-81FA-401D-BCF0-50F09151C362}">
       <formula1>"Chrome,Firefox,Edge Chromium,Edge"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A3811114-55E5-4138-BA1C-522234A3BE41}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="https://cw623.intr.toray.co.jp/b82/loginform" xr:uid="{797830DC-1C1B-43E8-AC51-57D736669426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>